--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Zp3-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Zp3-Chrna7.xlsx
@@ -558,7 +558,7 @@
         <v>0.3951499920672696</v>
       </c>
       <c r="P2">
-        <v>0.3951499920672696</v>
+        <v>0.3951499920672695</v>
       </c>
       <c r="Q2">
         <v>0.04525613805155555</v>
@@ -570,7 +570,7 @@
         <v>0.3951499920672696</v>
       </c>
       <c r="T2">
-        <v>0.3951499920672696</v>
+        <v>0.3951499920672695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7942436666666666</v>
+        <v>0.7942436666666667</v>
       </c>
       <c r="N3">
         <v>2.382731</v>
@@ -623,10 +623,10 @@
         <v>0.6048500079327305</v>
       </c>
       <c r="Q3">
-        <v>0.0692728736151111</v>
+        <v>0.06927287361511111</v>
       </c>
       <c r="R3">
-        <v>0.6234558625359999</v>
+        <v>0.623455862536</v>
       </c>
       <c r="S3">
         <v>0.6048500079327305</v>
